--- a/work-time-meisam-zolfaghari.xlsx
+++ b/work-time-meisam-zolfaghari.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>تاریخ</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>-----</t>
+  </si>
+  <si>
+    <t>تعطیل</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -466,8 +469,8 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.45833333333333331</v>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -475,8 +478,8 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.45833333333333331</v>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -484,53 +487,43 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.45833333333333331</v>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -538,8 +531,8 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.45833333333333331</v>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="5"/>
     </row>

--- a/work-time-meisam-zolfaghari.xlsx
+++ b/work-time-meisam-zolfaghari.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -460,7 +460,9 @@
       <c r="B2" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>

--- a/work-time-meisam-zolfaghari.xlsx
+++ b/work-time-meisam-zolfaghari.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>تاریخ</t>
   </si>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,9 @@
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">

--- a/work-time-meisam-zolfaghari.xlsx
+++ b/work-time-meisam-zolfaghari.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>تاریخ</t>
   </si>
@@ -485,7 +485,9 @@
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
